--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl12-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl12-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ccl12</t>
+  </si>
+  <si>
+    <t>Ackr4</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ccl12</t>
-  </si>
-  <si>
-    <t>Ackr4</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.288126333333333</v>
+        <v>20.23247666666667</v>
       </c>
       <c r="H2">
-        <v>9.864379</v>
+        <v>60.69743</v>
       </c>
       <c r="I2">
-        <v>0.05813306630866938</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.05813306630866937</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1636346666666667</v>
+        <v>0.227228</v>
       </c>
       <c r="N2">
-        <v>0.490904</v>
+        <v>0.681684</v>
       </c>
       <c r="O2">
-        <v>0.1786204457433447</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="P2">
-        <v>0.1786204457433446</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="Q2">
-        <v>0.5380514565128889</v>
+        <v>4.597385208013333</v>
       </c>
       <c r="R2">
-        <v>4.842463108616</v>
+        <v>41.37646687212</v>
       </c>
       <c r="S2">
-        <v>0.01038375421648194</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="T2">
-        <v>0.01038375421648193</v>
+        <v>0.2376267857721762</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.288126333333333</v>
+        <v>20.23247666666667</v>
       </c>
       <c r="H3">
-        <v>9.864379</v>
+        <v>60.69743</v>
       </c>
       <c r="I3">
-        <v>0.05813306630866938</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.05813306630866937</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.961192</v>
       </c>
       <c r="O3">
-        <v>0.7135997857590926</v>
+        <v>0.6836477770376096</v>
       </c>
       <c r="P3">
-        <v>0.7135997857590924</v>
+        <v>0.6836477770376095</v>
       </c>
       <c r="Q3">
-        <v>2.149549019974222</v>
+        <v>13.22659045961778</v>
       </c>
       <c r="R3">
-        <v>19.345941179768</v>
+        <v>119.03931413656</v>
       </c>
       <c r="S3">
-        <v>0.04148374366338559</v>
+        <v>0.6836477770376096</v>
       </c>
       <c r="T3">
-        <v>0.04148374366338558</v>
+        <v>0.6836477770376095</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.288126333333333</v>
+        <v>20.23247666666667</v>
       </c>
       <c r="H4">
-        <v>9.864379</v>
+        <v>60.69743</v>
       </c>
       <c r="I4">
-        <v>0.05813306630866938</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.05813306630866937</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,332 +685,22 @@
         <v>0.225841</v>
       </c>
       <c r="O4">
-        <v>0.08217455976549935</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="P4">
-        <v>0.08217455976549934</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="Q4">
-        <v>0.2475312464154444</v>
+        <v>1.523107587625555</v>
       </c>
       <c r="R4">
-        <v>2.227781217739</v>
+        <v>13.70796828863</v>
       </c>
       <c r="S4">
-        <v>0.004777059131733489</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="T4">
-        <v>0.004777059131733487</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>3.288126333333333</v>
-      </c>
-      <c r="H5">
-        <v>9.864379</v>
-      </c>
-      <c r="I5">
-        <v>0.05813306630866938</v>
-      </c>
-      <c r="J5">
-        <v>0.05813306630866937</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.023457</v>
-      </c>
-      <c r="N5">
-        <v>0.070371</v>
-      </c>
-      <c r="O5">
-        <v>0.02560520873206351</v>
-      </c>
-      <c r="P5">
-        <v>0.02560520873206351</v>
-      </c>
-      <c r="Q5">
-        <v>0.077129579401</v>
-      </c>
-      <c r="R5">
-        <v>0.694166214609</v>
-      </c>
-      <c r="S5">
-        <v>0.001488509297068368</v>
-      </c>
-      <c r="T5">
-        <v>0.001488509297068368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>53.27393966666666</v>
-      </c>
-      <c r="H6">
-        <v>159.821819</v>
-      </c>
-      <c r="I6">
-        <v>0.9418669336913307</v>
-      </c>
-      <c r="J6">
-        <v>0.9418669336913306</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.1636346666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.490904</v>
-      </c>
-      <c r="O6">
-        <v>0.1786204457433447</v>
-      </c>
-      <c r="P6">
-        <v>0.1786204457433446</v>
-      </c>
-      <c r="Q6">
-        <v>8.71746335937511</v>
-      </c>
-      <c r="R6">
-        <v>78.45717023437599</v>
-      </c>
-      <c r="S6">
-        <v>0.1682366915268627</v>
-      </c>
-      <c r="T6">
-        <v>0.1682366915268627</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>53.27393966666666</v>
-      </c>
-      <c r="H7">
-        <v>159.821819</v>
-      </c>
-      <c r="I7">
-        <v>0.9418669336913307</v>
-      </c>
-      <c r="J7">
-        <v>0.9418669336913306</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.6537306666666667</v>
-      </c>
-      <c r="N7">
-        <v>1.961192</v>
-      </c>
-      <c r="O7">
-        <v>0.7135997857590926</v>
-      </c>
-      <c r="P7">
-        <v>0.7135997857590924</v>
-      </c>
-      <c r="Q7">
-        <v>34.82680809424977</v>
-      </c>
-      <c r="R7">
-        <v>313.4412728482479</v>
-      </c>
-      <c r="S7">
-        <v>0.672116042095707</v>
-      </c>
-      <c r="T7">
-        <v>0.6721160420957069</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>53.27393966666666</v>
-      </c>
-      <c r="H8">
-        <v>159.821819</v>
-      </c>
-      <c r="I8">
-        <v>0.9418669336913307</v>
-      </c>
-      <c r="J8">
-        <v>0.9418669336913306</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.07528033333333332</v>
-      </c>
-      <c r="N8">
-        <v>0.225841</v>
-      </c>
-      <c r="O8">
-        <v>0.08217455976549935</v>
-      </c>
-      <c r="P8">
-        <v>0.08217455976549934</v>
-      </c>
-      <c r="Q8">
-        <v>4.010479936086554</v>
-      </c>
-      <c r="R8">
-        <v>36.09431942477899</v>
-      </c>
-      <c r="S8">
-        <v>0.07739750063376587</v>
-      </c>
-      <c r="T8">
-        <v>0.07739750063376584</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>53.27393966666666</v>
-      </c>
-      <c r="H9">
-        <v>159.821819</v>
-      </c>
-      <c r="I9">
-        <v>0.9418669336913307</v>
-      </c>
-      <c r="J9">
-        <v>0.9418669336913306</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.023457</v>
-      </c>
-      <c r="N9">
-        <v>0.070371</v>
-      </c>
-      <c r="O9">
-        <v>0.02560520873206351</v>
-      </c>
-      <c r="P9">
-        <v>0.02560520873206351</v>
-      </c>
-      <c r="Q9">
-        <v>1.249646802761</v>
-      </c>
-      <c r="R9">
-        <v>11.246821224849</v>
-      </c>
-      <c r="S9">
-        <v>0.02411669943499515</v>
-      </c>
-      <c r="T9">
-        <v>0.02411669943499514</v>
+        <v>0.0787254371902143</v>
       </c>
     </row>
   </sheetData>
